--- a/Advanced Reactor Materials/Fall2023/presentation_grading.xlsx
+++ b/Advanced Reactor Materials/Fall2023/presentation_grading.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/TEACHING/Advanced Reactor Materials/Fall2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Advanced Reactor Materials/Fall2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD5B9D19-6360-3943-BE50-8C93114CD9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FD0A57-490D-5C4A-8072-389ACB533AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="2560" windowWidth="18960" windowHeight="15800" xr2:uid="{563BFCAC-2993-1646-B411-9EA90A5202BB}"/>
+    <workbookView xWindow="30640" yWindow="5400" windowWidth="18960" windowHeight="15800" xr2:uid="{563BFCAC-2993-1646-B411-9EA90A5202BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>Presentation Grading</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Audience</t>
+  </si>
+  <si>
+    <t>Curve</t>
   </si>
 </sst>
 </file>
@@ -474,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535A8E33-1E78-EA41-A1B7-552CC2424A45}">
-  <dimension ref="B2:K33"/>
+  <dimension ref="B2:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -648,7 +651,7 @@
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J14">
         <f t="shared" si="2"/>
@@ -720,7 +723,7 @@
         <v>5</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -851,7 +854,7 @@
       </c>
       <c r="J24">
         <f t="shared" si="5"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24" s="1"/>
     </row>
@@ -944,7 +947,7 @@
         <v>12</v>
       </c>
       <c r="J28">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
@@ -969,16 +972,192 @@
       </c>
       <c r="I31">
         <f t="shared" ref="I31:J31" si="6">SUM(I24,I19,I14,I8)</f>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J31">
         <f t="shared" si="6"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>18</v>
+      </c>
+      <c r="F33">
+        <f>F31+5</f>
+        <v>95</v>
+      </c>
+      <c r="G33">
+        <f>G31+5</f>
+        <v>94</v>
+      </c>
+      <c r="H33">
+        <f>H31+5</f>
+        <v>102</v>
+      </c>
+      <c r="I33">
+        <f>I31+5</f>
+        <v>90</v>
+      </c>
+      <c r="J33">
+        <f>J31+5</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37" si="7">SUM(C38:C41)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43" si="8">SUM(C44:C46)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ref="C48" si="9">SUM(C49:C51)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53" si="10">SUM(C54:C58)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
